--- a/Signal Controller BOM.xlsx
+++ b/Signal Controller BOM.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="142">
   <si>
     <t>Description</t>
   </si>
@@ -395,15 +395,6 @@
     <t>3.3K Ohm Resistor</t>
   </si>
   <si>
-    <t>VJ0603A220JXACW1BC</t>
-  </si>
-  <si>
-    <t>77-VJ0603A220JXACBC</t>
-  </si>
-  <si>
-    <t>Vishay / Vitramon</t>
-  </si>
-  <si>
     <t>http://www.mouser.com/ds/2/427/vjw1bcbascomseries-223529.pdf</t>
   </si>
   <si>
@@ -477,6 +468,21 @@
   </si>
   <si>
     <t>571-4-146262-1</t>
+  </si>
+  <si>
+    <t>710-885012006053</t>
+  </si>
+  <si>
+    <t>Wurth</t>
+  </si>
+  <si>
+    <t>885012006053</t>
+  </si>
+  <si>
+    <t>Price per board:</t>
+  </si>
+  <si>
+    <t>Price for Pair</t>
   </si>
 </sst>
 </file>
@@ -597,7 +603,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -651,13 +657,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1053,8 +1053,8 @@
   </sheetPr>
   <dimension ref="A1:R62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" topLeftCell="D4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1072,17 +1072,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C2" s="1"/>
@@ -1185,25 +1185,25 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="24">
+      <c r="A12" s="22">
         <v>1</v>
       </c>
       <c r="B12" s="10">
         <f>(1*G49)</f>
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>15</v>
@@ -1218,11 +1218,12 @@
         <v>83</v>
       </c>
       <c r="G12" s="14">
-        <v>0.4</v>
+        <f>IF(B12&lt;=9,0.36,IF(B12&lt;=99,0.272,IF(B12&lt;=999,0.111)))</f>
+        <v>0.27200000000000002</v>
       </c>
       <c r="H12" s="14">
         <f>(B12*G12)</f>
-        <v>0.4</v>
+        <v>13.600000000000001</v>
       </c>
       <c r="I12" s="12" t="s">
         <v>37</v>
@@ -1238,12 +1239,12 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="24">
+      <c r="A13" s="22">
         <v>2</v>
       </c>
       <c r="B13" s="10">
         <f>(1*G49)</f>
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>16</v>
@@ -1258,11 +1259,12 @@
         <v>71</v>
       </c>
       <c r="G13" s="14">
-        <v>4.09</v>
+        <f>IF(B13&lt;=24,4.09,IF(B13&lt;=99,3.75,IF(B13&lt;=999,3.4)))</f>
+        <v>3.75</v>
       </c>
       <c r="H13" s="14">
         <f t="shared" ref="H13:H18" si="0">(B13*G13)</f>
-        <v>4.09</v>
+        <v>187.5</v>
       </c>
       <c r="I13" s="12" t="s">
         <v>38</v>
@@ -1278,31 +1280,32 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="24">
+      <c r="A14" s="22">
         <v>4</v>
       </c>
       <c r="B14" s="10">
         <f>(7*G49)</f>
-        <v>7</v>
+        <v>350</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="G14" s="14">
-        <v>0.1</v>
+        <v>114</v>
+      </c>
+      <c r="G14" s="14" t="b">
+        <f>IF(B14&lt;=9,0.1,IF(B14&lt;=24,0.036,IF(B14&lt;=49,0.027,IF(B14&lt;=99,0.019,IF(B14&lt;=249,0.013,IF(B14&gt;=500,0.011))))))</f>
+        <v>0</v>
       </c>
       <c r="H14" s="14">
         <f>(B14*G14)</f>
-        <v>0.70000000000000007</v>
+        <v>0</v>
       </c>
       <c r="I14" s="12" t="s">
         <v>17</v>
@@ -1314,35 +1317,36 @@
         <v>19</v>
       </c>
       <c r="L14" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="24">
+      <c r="A15" s="22">
         <v>5</v>
       </c>
       <c r="B15" s="10">
         <f>(2*G49)</f>
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>112</v>
+        <v>138</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>139</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="G15" s="14">
-        <v>0.06</v>
+        <f>IF(B15&lt;=9,0.07,IF(B15&lt;=24,0.06,IF(B15&lt;=49,0.05,IF(B15&lt;=499,0.04,IF(B15&lt;=999,0.02)))))</f>
+        <v>0.04</v>
       </c>
       <c r="H15" s="14">
         <f t="shared" si="0"/>
-        <v>0.12</v>
+        <v>4</v>
       </c>
       <c r="I15" s="12" t="s">
         <v>40</v>
@@ -1354,16 +1358,16 @@
         <v>19</v>
       </c>
       <c r="L15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="24">
+      <c r="A16" s="22">
         <v>7</v>
       </c>
       <c r="B16" s="10">
         <f>(1*G49)</f>
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>56</v>
@@ -1378,11 +1382,12 @@
         <v>58</v>
       </c>
       <c r="G16" s="14">
-        <v>0.09</v>
+        <f>IF(B16&lt;=9,0.09,IF(B16&lt;=99,0.082,IF(B16&lt;=499,0.057)))</f>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="H16" s="14">
         <f t="shared" si="0"/>
-        <v>0.09</v>
+        <v>4.1000000000000005</v>
       </c>
       <c r="I16" s="12" t="s">
         <v>59</v>
@@ -1398,31 +1403,32 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="24">
+      <c r="A17" s="22">
         <v>8</v>
       </c>
       <c r="B17" s="10">
         <f>(1*G49)</f>
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>109</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="G17" s="19">
-        <v>0.1</v>
+        <v>123</v>
+      </c>
+      <c r="G17" s="14">
+        <f>IF(B17&lt;=9,0.1,IF(B17&lt;=99,0.013,IF(B17&lt;=499,0.007)))</f>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="H17" s="14">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.65</v>
       </c>
       <c r="I17" s="12" t="s">
         <v>110</v>
@@ -1434,37 +1440,38 @@
         <v>19</v>
       </c>
       <c r="L17" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="24">
+      <c r="A18" s="22">
         <v>9</v>
       </c>
       <c r="B18" s="10">
         <f>(8*G49)</f>
-        <v>8</v>
-      </c>
-      <c r="C18" s="23" t="s">
+        <v>400</v>
+      </c>
+      <c r="C18" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="G18" s="21">
-        <v>0.1</v>
+      <c r="D18" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="G18" s="14">
+        <f>IF(B18&lt;=9,0.1,IF(B18&lt;=99,0.013,IF(B18&lt;=499,0.007,IF(B18&lt;=999,0.005))))</f>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="H18" s="14">
         <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="I18" s="20" t="s">
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="I18" s="19" t="s">
         <v>18</v>
       </c>
       <c r="J18" s="15" t="s">
@@ -1476,31 +1483,32 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="24">
+      <c r="A19" s="22">
         <v>11</v>
       </c>
       <c r="B19" s="10">
         <f>(2*G49)</f>
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>24</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G19" s="14">
-        <v>0.1</v>
+        <f>IF(B19&lt;=9,0.1,IF(B19&lt;=99,0.025,IF(B19&lt;=499,0.014)))</f>
+        <v>1.4E-2</v>
       </c>
       <c r="H19" s="14">
         <f t="shared" ref="H19:H24" si="1">(B19*G19)</f>
-        <v>0.2</v>
+        <v>1.4000000000000001</v>
       </c>
       <c r="I19" s="12" t="s">
         <v>41</v>
@@ -1512,37 +1520,38 @@
         <v>19</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="24">
+      <c r="A20" s="22">
         <v>13</v>
       </c>
       <c r="B20" s="10">
         <f>(3*G49)</f>
-        <v>3</v>
-      </c>
-      <c r="C20" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="19" t="s">
         <v>100</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="G20" s="21">
-        <v>0.14000000000000001</v>
+      <c r="G20" s="14">
+        <f>IF(B20&lt;=9,0.14,IF(B20&lt;=99,0.083,IF(B20&lt;=999,0.068)))</f>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="H20" s="14">
         <f t="shared" si="1"/>
-        <v>0.42000000000000004</v>
-      </c>
-      <c r="I20" s="20" t="s">
+        <v>10.200000000000001</v>
+      </c>
+      <c r="I20" s="19" t="s">
         <v>42</v>
       </c>
       <c r="J20" s="15" t="s">
@@ -1556,14 +1565,14 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="24">
+      <c r="A21" s="22">
         <v>14</v>
       </c>
       <c r="B21" s="10">
         <f>(3*G49)</f>
-        <v>3</v>
-      </c>
-      <c r="C21" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="C21" s="21" t="s">
         <v>26</v>
       </c>
       <c r="D21" s="18" t="s">
@@ -1572,15 +1581,16 @@
       <c r="E21" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="20" t="s">
         <v>95</v>
       </c>
       <c r="G21" s="14">
-        <v>0.15</v>
+        <f>IF(B21&lt;=9,0.15,IF(B21&lt;=24,0.13,IF(B21&lt;=99,0.1,IF(B21&lt;=499,0.095,IF(B21&lt;=999,0.087)))))</f>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="H21" s="14">
         <f t="shared" ref="H21" si="2">(B21*G21)</f>
-        <v>0.44999999999999996</v>
+        <v>14.25</v>
       </c>
       <c r="I21" s="12" t="s">
         <v>43</v>
@@ -1596,12 +1606,12 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="24">
+      <c r="A22" s="22">
         <v>15</v>
       </c>
       <c r="B22" s="10">
         <f>(3*G49)</f>
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>27</v>
@@ -1612,15 +1622,16 @@
       <c r="E22" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="20" t="s">
         <v>98</v>
       </c>
       <c r="G22" s="14">
-        <v>0.14000000000000001</v>
+        <f>IF(B22&lt;=9,0.14,IF(B22&lt;=99,0.123,IF(B22&lt;=999,0.044)))</f>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="H22" s="14">
         <f t="shared" si="1"/>
-        <v>0.42000000000000004</v>
+        <v>6.6</v>
       </c>
       <c r="I22" s="12" t="s">
         <v>44</v>
@@ -1636,12 +1647,12 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="24">
+      <c r="A23" s="22">
         <v>16</v>
       </c>
       <c r="B23" s="10">
         <f>(3*G49)</f>
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="C23" s="18" t="s">
         <v>28</v>
@@ -1652,15 +1663,16 @@
       <c r="E23" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F23" s="20" t="s">
         <v>69</v>
       </c>
       <c r="G23" s="14">
-        <v>1.25</v>
+        <f>IF(B23&lt;=24,1.25,IF(B23&lt;=49,1.11,IF(B23&lt;=99,1.06,IF(B23&lt;=199,0.998,IF(B23&lt;=499,0.887)))))</f>
+        <v>0.998</v>
       </c>
       <c r="H23" s="14">
         <f t="shared" si="1"/>
-        <v>3.75</v>
+        <v>149.69999999999999</v>
       </c>
       <c r="I23" s="12" t="s">
         <v>45</v>
@@ -1674,12 +1686,12 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="24">
+      <c r="A24" s="22">
         <v>17</v>
       </c>
       <c r="B24" s="10">
         <f>(1*G49)</f>
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C24" s="18" t="s">
         <v>29</v>
@@ -1694,11 +1706,12 @@
         <v>63</v>
       </c>
       <c r="G24" s="14">
-        <v>0.51</v>
+        <f>IF(B24&lt;=9,0.51,IF(B24&lt;=99,0.383,IF(B24&lt;=249,0.34)))</f>
+        <v>0.38300000000000001</v>
       </c>
       <c r="H24" s="14">
         <f t="shared" si="1"/>
-        <v>0.51</v>
+        <v>19.149999999999999</v>
       </c>
       <c r="I24" s="12" t="s">
         <v>46</v>
@@ -1712,12 +1725,12 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="24">
+      <c r="A25" s="22">
         <v>18</v>
       </c>
       <c r="B25" s="10">
         <f>(5*G49)</f>
-        <v>5</v>
+        <v>250</v>
       </c>
       <c r="C25" s="18" t="s">
         <v>30</v>
@@ -1731,12 +1744,13 @@
       <c r="F25" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G25" s="14">
-        <v>0.11</v>
+      <c r="G25" s="14" t="b">
+        <f>IF(B25&lt;=9,0.11,IF(B25&lt;=24,0.101,IF(B25&lt;=99,0.09,IF(B25&lt;=249,0.086,IF(B25&gt;=499,0.079)))))</f>
+        <v>0</v>
       </c>
       <c r="H25" s="14">
         <f t="shared" ref="H25:H32" si="3">(B25*G25)</f>
-        <v>0.55000000000000004</v>
+        <v>0</v>
       </c>
       <c r="I25" s="12" t="s">
         <v>47</v>
@@ -1750,12 +1764,12 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="24">
+      <c r="A26" s="22">
         <v>19</v>
       </c>
       <c r="B26" s="10">
         <f>(1*G49)</f>
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C26" s="18" t="s">
         <v>31</v>
@@ -1770,11 +1784,12 @@
         <v>79</v>
       </c>
       <c r="G26" s="14">
-        <v>0.59</v>
+        <f>IF(B26&lt;=9,0.59,IF(B26&lt;=24,0.558,IF(B26&lt;=49,0.502,IF(B26&lt;=99,0.446,IF(B26&gt;=100,0.428)))))</f>
+        <v>0.44600000000000001</v>
       </c>
       <c r="H26" s="14">
         <f t="shared" si="3"/>
-        <v>0.59</v>
+        <v>22.3</v>
       </c>
       <c r="I26" s="12" t="s">
         <v>48</v>
@@ -1788,12 +1803,12 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="24">
+      <c r="A27" s="22">
         <v>20</v>
       </c>
       <c r="B27" s="10">
         <f>(1*G49)</f>
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C27" s="18" t="s">
         <v>32</v>
@@ -1808,11 +1823,12 @@
         <v>107</v>
       </c>
       <c r="G27" s="14">
-        <v>0.46</v>
+        <f>IF(B27&lt;=9,0.46,IF(B27&lt;=99,0.318,IF(B27&lt;=499,0.275)))</f>
+        <v>0.318</v>
       </c>
       <c r="H27" s="14">
         <f t="shared" si="3"/>
-        <v>0.46</v>
+        <v>15.9</v>
       </c>
       <c r="I27" s="12" t="s">
         <v>49</v>
@@ -1826,12 +1842,12 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="24">
+      <c r="A28" s="22">
         <v>21</v>
       </c>
       <c r="B28" s="10">
         <f>(1*G49)</f>
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C28" s="18" t="s">
         <v>33</v>
@@ -1840,17 +1856,18 @@
         <v>67</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G28" s="14">
-        <v>0.15</v>
+        <f>IF(B28&lt;=9,0.15,IF(B28&lt;=24,0.149,IF(B28&lt;=49,0.136,IF(B28&lt;=99,0.136,IF(B28&lt;=499,0.127)))))</f>
+        <v>0.13600000000000001</v>
       </c>
       <c r="H28" s="14">
         <f t="shared" si="3"/>
-        <v>0.15</v>
+        <v>6.8000000000000007</v>
       </c>
       <c r="I28" s="12" t="s">
         <v>51</v>
@@ -1861,63 +1878,66 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="24">
+      <c r="A29" s="22">
         <v>22</v>
       </c>
       <c r="B29" s="10">
         <f>(2*G49)</f>
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="C29" s="18" t="s">
         <v>34</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E29" s="10">
         <v>1984617</v>
       </c>
-      <c r="F29" s="10" t="s">
-        <v>134</v>
+      <c r="F29" s="12" t="s">
+        <v>131</v>
       </c>
       <c r="G29" s="14">
-        <v>0.43</v>
+        <f>IF(B29&lt;=9,0.43,IF(B29&lt;=24,0.413,IF(B29&lt;=49,0.401,IF(B29&lt;=99,0.396,IF(B29&lt;=249,0.385)))))</f>
+        <v>0.38500000000000001</v>
       </c>
       <c r="H29" s="14">
         <f t="shared" si="3"/>
-        <v>0.86</v>
+        <v>38.5</v>
       </c>
       <c r="I29" s="12" t="s">
         <v>50</v>
       </c>
       <c r="J29" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K29" s="12" t="s">
         <v>60</v>
       </c>
       <c r="L29" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="24">
+      <c r="A30" s="22">
         <v>23</v>
       </c>
       <c r="B30" s="10">
         <f>(1*G49)</f>
-        <v>1</v>
-      </c>
-      <c r="C30" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="21" t="s">
         <v>108</v>
       </c>
       <c r="D30" s="18"/>
       <c r="E30" s="18"/>
       <c r="F30" s="12"/>
-      <c r="G30" s="14"/>
+      <c r="G30" s="14">
+        <v>1.5</v>
+      </c>
       <c r="H30" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I30" s="12"/>
       <c r="J30" s="15"/>
@@ -1926,14 +1946,14 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="24">
+      <c r="A31" s="22">
         <v>24</v>
       </c>
       <c r="B31" s="10">
         <f>(1*G49)</f>
-        <v>1</v>
-      </c>
-      <c r="C31" s="23"/>
+        <v>50</v>
+      </c>
+      <c r="C31" s="21"/>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
       <c r="F31" s="12"/>
@@ -1949,14 +1969,14 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="24">
+      <c r="A32" s="22">
         <v>25</v>
       </c>
       <c r="B32" s="10">
         <f>(1*G49)</f>
-        <v>1</v>
-      </c>
-      <c r="C32" s="23"/>
+        <v>50</v>
+      </c>
+      <c r="C32" s="21"/>
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>
       <c r="F32" s="12"/>
@@ -1972,26 +1992,26 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A33" s="26"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="26"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="24"/>
       <c r="L33" s="3"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A34" s="25">
+      <c r="A34" s="23">
         <v>1</v>
       </c>
       <c r="B34" s="10">
         <f>(3*G49)</f>
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>27</v>
@@ -2006,11 +2026,12 @@
         <v>98</v>
       </c>
       <c r="G34" s="14">
-        <v>0.14000000000000001</v>
+        <f>IF(B34&lt;=9,0.14,IF(B34&lt;=99,0.123,IF(B34&lt;=999,0.044)))</f>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="H34" s="14">
         <f t="shared" ref="H34:H45" si="4">(B34*G34)</f>
-        <v>0.42000000000000004</v>
+        <v>6.6</v>
       </c>
       <c r="I34" s="12" t="s">
         <v>44</v>
@@ -2026,12 +2047,12 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="25">
+      <c r="A35" s="23">
         <v>2</v>
       </c>
       <c r="B35" s="10">
         <f>(3*G49)</f>
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>28</v>
@@ -2042,15 +2063,16 @@
       <c r="E35" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="F35" s="20" t="s">
         <v>69</v>
       </c>
       <c r="G35" s="14">
-        <v>1.25</v>
+        <f>IF(B35&lt;=24,1.25,IF(B35&lt;=49,1.11,IF(B35&lt;=99,1.06,IF(B35&lt;=199,0.998,IF(B35&lt;=499,0.887)))))</f>
+        <v>0.998</v>
       </c>
       <c r="H35" s="14">
         <f t="shared" si="4"/>
-        <v>3.75</v>
+        <v>149.69999999999999</v>
       </c>
       <c r="I35" s="12" t="s">
         <v>45</v>
@@ -2064,31 +2086,31 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A36" s="25">
+      <c r="A36" s="23">
         <v>3</v>
       </c>
       <c r="B36" s="10">
         <f>(3*G49)</f>
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="E36" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="F36" s="20" t="s">
-        <v>133</v>
+      <c r="D36" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>130</v>
       </c>
       <c r="G36" s="14">
         <v>0.1</v>
       </c>
       <c r="H36" s="14">
         <f t="shared" si="4"/>
-        <v>0.30000000000000004</v>
+        <v>15</v>
       </c>
       <c r="I36" s="12" t="s">
         <v>18</v>
@@ -2102,31 +2124,31 @@
       <c r="L36" s="3"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A37" s="25">
+      <c r="A37" s="23">
         <v>3</v>
       </c>
       <c r="B37" s="10">
         <f>(1*G49)</f>
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>92</v>
       </c>
       <c r="D37" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F37" s="10" t="s">
         <v>127</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>130</v>
       </c>
       <c r="G37" s="14">
         <v>0.1</v>
       </c>
       <c r="H37" s="14">
         <f t="shared" si="4"/>
-        <v>0.1</v>
+        <v>5</v>
       </c>
       <c r="I37" s="12" t="s">
         <v>111</v>
@@ -2138,16 +2160,16 @@
         <v>19</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A38" s="25">
+      <c r="A38" s="23">
         <v>3</v>
       </c>
       <c r="B38" s="10">
         <f>(1*G49)</f>
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>21</v>
@@ -2162,11 +2184,12 @@
         <v>58</v>
       </c>
       <c r="G38" s="14">
-        <v>0.09</v>
+        <f>IF(B38&lt;=9,0.09,IF(B38&lt;=99,0.082,IF(B38&lt;=499,0.057)))</f>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="H38" s="14">
         <f>(B38*G38)</f>
-        <v>0.09</v>
+        <v>4.1000000000000005</v>
       </c>
       <c r="I38" s="12" t="s">
         <v>59</v>
@@ -2182,12 +2205,12 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A39" s="25">
+      <c r="A39" s="23">
         <v>3</v>
       </c>
       <c r="B39" s="10">
         <f>(3*G49)</f>
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>25</v>
@@ -2202,11 +2225,12 @@
         <v>95</v>
       </c>
       <c r="G39" s="14">
-        <v>0.15</v>
+        <f>IF(B39&lt;=9,0.15,IF(B39&lt;=24,0.13,IF(B39&lt;=99,0.1,IF(B39&lt;=499,0.095,IF(B39&lt;=999,0.087)))))</f>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="H39" s="14">
         <f t="shared" si="4"/>
-        <v>0.44999999999999996</v>
+        <v>14.25</v>
       </c>
       <c r="I39" s="12" t="s">
         <v>43</v>
@@ -2223,12 +2247,12 @@
       <c r="R39" s="2"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A40" s="25">
+      <c r="A40" s="23">
         <v>3</v>
       </c>
       <c r="B40" s="10">
         <f>(1*G49)</f>
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>91</v>
@@ -2243,11 +2267,12 @@
         <v>101</v>
       </c>
       <c r="G40" s="14">
-        <v>0.14000000000000001</v>
+        <f>IF(B40&lt;=9,0.14,IF(B40&lt;=99,0.083,IF(B40&lt;=999,0.068)))</f>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="H40" s="14">
         <f t="shared" si="4"/>
-        <v>0.14000000000000001</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="I40" s="12" t="s">
         <v>42</v>
@@ -2263,12 +2288,12 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A41" s="25">
+      <c r="A41" s="23">
         <v>3</v>
       </c>
       <c r="B41" s="10">
         <f>(1*G49)</f>
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>108</v>
@@ -2276,10 +2301,12 @@
       <c r="D41" s="12"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
-      <c r="G41" s="14"/>
+      <c r="G41" s="14">
+        <v>1.5</v>
+      </c>
       <c r="H41" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I41" s="12"/>
       <c r="J41" s="15"/>
@@ -2287,52 +2314,53 @@
       <c r="L41" s="3"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A42" s="25">
+      <c r="A42" s="23">
         <v>3</v>
       </c>
       <c r="B42" s="10">
-        <f>(1*G49)</f>
-        <v>1</v>
+        <f>(2*G49)</f>
+        <v>100</v>
       </c>
       <c r="C42" s="18" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E42" s="10">
         <v>1984617</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G42" s="14">
-        <v>0.43</v>
+        <f>IF(B42&lt;=9,0.43,IF(B42&lt;=24,0.413,IF(B42&lt;=49,0.401,IF(B42&lt;=99,0.396,IF(B42&lt;=249,0.385)))))</f>
+        <v>0.38500000000000001</v>
       </c>
       <c r="H42" s="14">
         <f t="shared" si="4"/>
-        <v>0.43</v>
+        <v>38.5</v>
       </c>
       <c r="I42" s="12" t="s">
         <v>50</v>
       </c>
       <c r="J42" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K42" s="12" t="s">
         <v>60</v>
       </c>
       <c r="L42" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A43" s="25">
+      <c r="A43" s="23">
         <v>3</v>
       </c>
       <c r="B43" s="10">
         <f>(1*G49)</f>
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
@@ -2349,12 +2377,12 @@
       <c r="L43" s="3"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A44" s="25">
+      <c r="A44" s="23">
         <v>3</v>
       </c>
       <c r="B44" s="10">
         <f>(1*G49)</f>
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
@@ -2371,12 +2399,12 @@
       <c r="L44" s="3"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A45" s="25">
+      <c r="A45" s="23">
         <v>3</v>
       </c>
       <c r="B45" s="10">
         <f>(3*G49)</f>
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
@@ -2396,55 +2424,76 @@
       <c r="A46" s="1"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="I48" s="34"/>
-    </row>
-    <row r="49" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F49" s="33" t="s">
+      <c r="I48" s="32"/>
+    </row>
+    <row r="49" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F49" s="31" t="s">
         <v>13</v>
       </c>
       <c r="G49" s="1">
-        <v>1</v>
-      </c>
-      <c r="I49" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="I49" s="33" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="50" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="I50" s="36">
+      <c r="J49" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="50" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="I50" s="34">
         <f>SUM(H12:H32)</f>
-        <v>14.66</v>
-      </c>
-    </row>
-    <row r="51" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="I51" s="37"/>
-    </row>
-    <row r="52" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="I52" s="38" t="s">
+        <v>572.44999999999993</v>
+      </c>
+      <c r="J50" s="7">
+        <f>I50/G49</f>
+        <v>11.448999999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="I51" s="35"/>
+      <c r="J51" s="1"/>
+    </row>
+    <row r="52" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="I52" s="36" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="53" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="J52" s="1"/>
+    </row>
+    <row r="53" spans="6:10" x14ac:dyDescent="0.2">
       <c r="H53" s="7"/>
-      <c r="I53" s="36">
+      <c r="I53" s="34">
         <f>SUM(H34:H45)</f>
-        <v>5.6799999999999988</v>
-      </c>
-    </row>
-    <row r="54" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="I54" s="37"/>
-    </row>
-    <row r="55" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="I55" s="37" t="s">
+        <v>312.29999999999995</v>
+      </c>
+      <c r="J53" s="7">
+        <f>I53/G49</f>
+        <v>6.2459999999999987</v>
+      </c>
+    </row>
+    <row r="54" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="I54" s="35"/>
+      <c r="J54" s="1"/>
+    </row>
+    <row r="55" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="I55" s="35" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="I56" s="36">
+      <c r="J55" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="56" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="I56" s="34">
         <f>SUM(I50,I53)</f>
-        <v>20.34</v>
-      </c>
-    </row>
-    <row r="62" spans="6:9" x14ac:dyDescent="0.2">
+        <v>884.74999999999989</v>
+      </c>
+      <c r="J56" s="7">
+        <f>I56/G49</f>
+        <v>17.694999999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="6:10" x14ac:dyDescent="0.2">
       <c r="H62" s="8"/>
     </row>
   </sheetData>
